--- a/00_Generales/Parámetros 23082017.xlsx
+++ b/00_Generales/Parámetros 23082017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Analysis\01_DataAnalysis\00_Parametros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\00_Generales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2256,116 +2256,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2397,8 +2397,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>224597</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>731407</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1565525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2468,8 +2468,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2755488</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>707570</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1455965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,8 +2529,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>264115</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>627529</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1169093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2600,8 +2600,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177210</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>598714</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1405617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2671,8 +2671,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>356578</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>612321</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1672318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2742,8 +2742,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35218</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>721180</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1265466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2813,8 +2813,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>81884</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>734785</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1564820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2929,8 +2929,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2584722</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>576580</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1882866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3254,11 +3254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,70 +3279,70 @@
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="78" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="50" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="73"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="73"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="44"/>
     </row>
-    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3361,18 +3360,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3390,18 +3389,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3419,18 +3418,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3446,18 +3445,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
@@ -3473,18 +3472,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
@@ -3500,18 +3499,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
@@ -3529,18 +3528,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="11"/>
       <c r="G13" s="26" t="s">
         <v>12</v>
@@ -3556,18 +3555,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3583,18 +3582,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
@@ -3610,18 +3609,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
@@ -3637,18 +3636,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="56"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
@@ -3664,18 +3663,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
@@ -3691,18 +3690,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
@@ -3718,18 +3717,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3747,18 +3746,18 @@
         <v>00</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="15" t="s">
         <v>78</v>
       </c>
@@ -3776,18 +3775,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="17" t="s">
         <v>84</v>
       </c>
@@ -3805,18 +3804,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="56"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="17" t="s">
         <v>89</v>
       </c>
@@ -3834,18 +3833,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="17" t="s">
         <v>89</v>
       </c>
@@ -3863,18 +3862,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="17" t="s">
         <v>94</v>
       </c>
@@ -3892,18 +3891,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="17" t="s">
         <v>99</v>
       </c>
@@ -3921,18 +3920,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="17" t="s">
         <v>103</v>
       </c>
@@ -3950,18 +3949,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="56"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="7" t="s">
         <v>107</v>
       </c>
@@ -3979,18 +3978,18 @@
         <v>01</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="56"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="6" t="s">
         <v>135</v>
       </c>
@@ -4008,18 +4007,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="6" t="s">
         <v>135</v>
       </c>
@@ -4037,18 +4036,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="55" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="56"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="6" t="s">
         <v>144</v>
       </c>
@@ -4066,18 +4065,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="58"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="18" t="s">
         <v>147</v>
       </c>
@@ -4095,18 +4094,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="65" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="6" t="s">
         <v>144</v>
       </c>
@@ -4124,18 +4123,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="55" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="6" t="s">
         <v>144</v>
       </c>
@@ -4153,18 +4152,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="55" t="s">
+      <c r="C35" s="71"/>
+      <c r="D35" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="56"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="6" t="s">
         <v>144</v>
       </c>
@@ -4182,18 +4181,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="58"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="6" t="s">
         <v>144</v>
       </c>
@@ -4211,18 +4210,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="57" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="58"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="6" t="s">
         <v>144</v>
       </c>
@@ -4240,18 +4239,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="57" t="s">
+      <c r="C38" s="71"/>
+      <c r="D38" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="58"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="6" t="s">
         <v>144</v>
       </c>
@@ -4269,18 +4268,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="57" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="58"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="6" t="s">
         <v>144</v>
       </c>
@@ -4298,18 +4297,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="57" t="s">
+      <c r="C40" s="71"/>
+      <c r="D40" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="6" t="s">
         <v>144</v>
       </c>
@@ -4327,18 +4326,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="57" t="s">
+      <c r="C41" s="71"/>
+      <c r="D41" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="58"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="6" t="s">
         <v>144</v>
       </c>
@@ -4356,18 +4355,18 @@
         <v>02</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="55" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="22" t="s">
         <v>183</v>
       </c>
@@ -4385,18 +4384,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="55" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="22" t="s">
         <v>183</v>
       </c>
@@ -4414,18 +4413,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="55" t="s">
+      <c r="C44" s="71"/>
+      <c r="D44" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="56"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="23" t="s">
         <v>188</v>
       </c>
@@ -4443,18 +4442,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="55" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="56"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="24" t="s">
         <v>192</v>
       </c>
@@ -4472,18 +4471,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="24" t="s">
         <v>194</v>
       </c>
@@ -4501,18 +4500,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="55" t="s">
+      <c r="C47" s="71"/>
+      <c r="D47" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="56"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="24" t="s">
         <v>199</v>
       </c>
@@ -4530,18 +4529,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="55" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="56"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="24" t="s">
         <v>199</v>
       </c>
@@ -4559,18 +4558,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="55" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="24" t="s">
         <v>199</v>
       </c>
@@ -4588,18 +4587,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="24" t="s">
         <v>199</v>
       </c>
@@ -4617,18 +4616,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="55" t="s">
+      <c r="C51" s="71"/>
+      <c r="D51" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="65"/>
       <c r="F51" s="24" t="s">
         <v>210</v>
       </c>
@@ -4646,18 +4645,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="71"/>
+      <c r="D52" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="56"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="24" t="s">
         <v>214</v>
       </c>
@@ -4675,18 +4674,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="174.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="61" t="s">
+      <c r="C53" s="71"/>
+      <c r="D53" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="E53" s="62"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="24" t="s">
         <v>224</v>
       </c>
@@ -4704,18 +4703,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="61" t="s">
+      <c r="C54" s="71"/>
+      <c r="D54" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="62"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="24" t="s">
         <v>227</v>
       </c>
@@ -4733,18 +4732,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="71"/>
+      <c r="D55" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="62"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="24" t="s">
         <v>229</v>
       </c>
@@ -4762,18 +4761,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="61" t="s">
+      <c r="C56" s="71"/>
+      <c r="D56" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="62"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="24" t="s">
         <v>231</v>
       </c>
@@ -4791,18 +4790,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="61" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="E57" s="62"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="24" t="s">
         <v>234</v>
       </c>
@@ -4820,18 +4819,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="133.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="61" t="s">
+      <c r="C58" s="71"/>
+      <c r="D58" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="62"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="24" t="s">
         <v>236</v>
       </c>
@@ -4849,18 +4848,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="61" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="62"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="24" t="s">
         <v>238</v>
       </c>
@@ -4872,20 +4871,20 @@
         <v>04</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="107.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="62"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="24" t="s">
         <v>219</v>
       </c>
@@ -4903,18 +4902,18 @@
         <v>04</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="61" t="s">
+      <c r="C61" s="71"/>
+      <c r="D61" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="62"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="24" t="s">
         <v>223</v>
       </c>
@@ -4936,14 +4935,14 @@
       <c r="A62" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55" t="s">
+      <c r="C62" s="67"/>
+      <c r="D62" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="14" t="s">
         <v>259</v>
       </c>
@@ -4965,14 +4964,14 @@
       <c r="A63" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="55" t="s">
+      <c r="C63" s="63"/>
+      <c r="D63" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="56"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="14" t="s">
         <v>259</v>
       </c>
@@ -4994,14 +4993,14 @@
       <c r="A64" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="56"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="14" t="s">
         <v>259</v>
       </c>
@@ -5023,14 +5022,14 @@
       <c r="A65" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55" t="s">
+      <c r="C65" s="67"/>
+      <c r="D65" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="56"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="14" t="s">
         <v>259</v>
       </c>
@@ -5052,14 +5051,14 @@
       <c r="A66" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55" t="s">
+      <c r="C66" s="67"/>
+      <c r="D66" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="56"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="13" t="s">
         <v>71</v>
       </c>
@@ -5081,14 +5080,14 @@
       <c r="A67" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="59" t="s">
+      <c r="C67" s="67"/>
+      <c r="D67" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="60"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="13" t="s">
         <v>71</v>
       </c>
@@ -5106,18 +5105,18 @@
         <v>06</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55" t="s">
+      <c r="C68" s="67"/>
+      <c r="D68" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="56"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="15" t="s">
         <v>268</v>
       </c>
@@ -5135,18 +5134,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="55" t="s">
+      <c r="C69" s="71"/>
+      <c r="D69" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E69" s="56"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="15" t="s">
         <v>274</v>
       </c>
@@ -5164,18 +5163,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="55" t="s">
+      <c r="C70" s="71"/>
+      <c r="D70" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="E70" s="56"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="15" t="s">
         <v>280</v>
       </c>
@@ -5193,18 +5192,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="55" t="s">
+      <c r="C71" s="71"/>
+      <c r="D71" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="56"/>
+      <c r="E71" s="65"/>
       <c r="F71" s="15" t="s">
         <v>285</v>
       </c>
@@ -5222,18 +5221,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="128.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="55" t="s">
+      <c r="C72" s="71"/>
+      <c r="D72" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="56"/>
+      <c r="E72" s="65"/>
       <c r="F72" s="43" t="s">
         <v>290</v>
       </c>
@@ -5251,18 +5250,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="55" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E73" s="56"/>
+      <c r="E73" s="65"/>
       <c r="F73" s="43" t="s">
         <v>442</v>
       </c>
@@ -5280,18 +5279,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="55" t="s">
+      <c r="C74" s="71"/>
+      <c r="D74" s="64" t="s">
         <v>299</v>
       </c>
-      <c r="E74" s="56"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="43" t="s">
         <v>442</v>
       </c>
@@ -5309,18 +5308,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="55" t="s">
+      <c r="C75" s="71"/>
+      <c r="D75" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="E75" s="56"/>
+      <c r="E75" s="65"/>
       <c r="F75" s="43" t="s">
         <v>442</v>
       </c>
@@ -5338,18 +5337,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="55" t="s">
+      <c r="C76" s="71"/>
+      <c r="D76" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="56"/>
+      <c r="E76" s="65"/>
       <c r="F76" s="43" t="s">
         <v>442</v>
       </c>
@@ -5367,18 +5366,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="55" t="s">
+      <c r="C77" s="71"/>
+      <c r="D77" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="56"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="43" t="s">
         <v>442</v>
       </c>
@@ -5396,18 +5395,18 @@
         <v>07</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="55" t="s">
+      <c r="C78" s="71"/>
+      <c r="D78" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="56"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="22" t="s">
         <v>327</v>
       </c>
@@ -5425,18 +5424,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="57" t="s">
+      <c r="C79" s="71"/>
+      <c r="D79" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="E79" s="58"/>
+      <c r="E79" s="71"/>
       <c r="F79" s="16" t="s">
         <v>332</v>
       </c>
@@ -5454,18 +5453,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="57" t="s">
+      <c r="C80" s="71"/>
+      <c r="D80" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="E80" s="58"/>
+      <c r="E80" s="71"/>
       <c r="F80" s="16" t="s">
         <v>332</v>
       </c>
@@ -5483,18 +5482,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="57" t="s">
+      <c r="C81" s="67"/>
+      <c r="D81" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E81" s="58"/>
+      <c r="E81" s="71"/>
       <c r="F81" s="7" t="s">
         <v>332</v>
       </c>
@@ -5512,18 +5511,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="57" t="s">
+      <c r="C82" s="67"/>
+      <c r="D82" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E82" s="58"/>
+      <c r="E82" s="71"/>
       <c r="F82" s="6" t="s">
         <v>342</v>
       </c>
@@ -5541,18 +5540,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55" t="s">
+      <c r="C83" s="67"/>
+      <c r="D83" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="56"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="5" t="s">
         <v>347</v>
       </c>
@@ -5570,18 +5569,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55" t="s">
+      <c r="C84" s="67"/>
+      <c r="D84" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="E84" s="56"/>
+      <c r="E84" s="65"/>
       <c r="F84" s="7" t="s">
         <v>351</v>
       </c>
@@ -5599,18 +5598,18 @@
         <v>09</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55" t="s">
+      <c r="C85" s="67"/>
+      <c r="D85" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="E85" s="56"/>
+      <c r="E85" s="65"/>
       <c r="F85" s="7" t="s">
         <v>327</v>
       </c>
@@ -5628,16 +5627,16 @@
         <v>09</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="50"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="27" t="s">
         <v>356</v>
       </c>
@@ -5655,16 +5654,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="50"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="27" t="s">
         <v>358</v>
       </c>
@@ -5682,16 +5681,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="C88" s="52"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="50"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="81"/>
       <c r="F88" s="27" t="s">
         <v>360</v>
       </c>
@@ -5709,16 +5708,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="50"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="27" t="s">
         <v>361</v>
       </c>
@@ -5736,16 +5735,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C90" s="52"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="27" t="s">
         <v>361</v>
       </c>
@@ -5763,16 +5762,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="52"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="50"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="81"/>
       <c r="F91" s="27" t="s">
         <v>361</v>
       </c>
@@ -5790,16 +5789,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="50"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="81"/>
       <c r="F92" s="27" t="s">
         <v>361</v>
       </c>
@@ -5817,16 +5816,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="50"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="81"/>
       <c r="F93" s="27" t="s">
         <v>361</v>
       </c>
@@ -5844,16 +5843,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="C94" s="52"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="50"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="81"/>
       <c r="F94" s="27" t="s">
         <v>361</v>
       </c>
@@ -5871,16 +5870,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="52"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="50"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="81"/>
       <c r="F95" s="27" t="s">
         <v>361</v>
       </c>
@@ -5898,16 +5897,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="78" t="s">
         <v>386</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="50"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="81"/>
       <c r="F96" s="27" t="s">
         <v>361</v>
       </c>
@@ -5925,14 +5924,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="C97" s="52"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="34"/>
       <c r="E97" s="35"/>
       <c r="F97" s="27" t="s">
@@ -5952,16 +5951,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="81"/>
       <c r="F98" s="27" t="s">
         <v>361</v>
       </c>
@@ -5979,16 +5978,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="C99" s="52"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="50"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="27" t="s">
         <v>369</v>
       </c>
@@ -6006,16 +6005,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="50"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="81"/>
       <c r="F100" s="27" t="s">
         <v>371</v>
       </c>
@@ -6033,16 +6032,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B101" s="47" t="s">
+      <c r="B101" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="50"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="27" t="s">
         <v>373</v>
       </c>
@@ -6060,16 +6059,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="50"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="27" t="s">
         <v>361</v>
       </c>
@@ -6087,16 +6086,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="50"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="27" t="s">
         <v>361</v>
       </c>
@@ -6118,32 +6117,169 @@
   <autoFilter ref="A5:J103">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="06"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="202">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
@@ -6166,167 +6302,25 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" display="http://www.beta.inegi.org.mx/proyectos/enchogares/especiales/mcs/2015/"/>
